--- a/OutputFiles/TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="312">
   <si>
     <t>Case ID</t>
   </si>
@@ -657,6 +657,303 @@
   </si>
   <si>
     <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE s.clinical_study_designation IN ['COTC007B']  OPTIONAL MATCH (f:file)-[*]-&gt;(c), (samp:sample)-[*]-&gt;(c) WITH DISTINCT c AS c, p, s, demo, diag, f, samp RETURN count(DISTINCT(f)) as number_of_files , count(DISTINCT(samp)) as number_of_sample , count(DISTINCT(c.case_id)) as number_of_cases , count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
+  </si>
+  <si>
+    <t>COTC007B-0507</t>
+  </si>
+  <si>
+    <t>IVb</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>COTC007B-0901</t>
+  </si>
+  <si>
+    <t>IIIa</t>
+  </si>
+  <si>
+    <t>COTC007B-0513</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>COTC007B-0205</t>
+  </si>
+  <si>
+    <t>COTC007B-0501</t>
+  </si>
+  <si>
+    <t>COTC007B-1002</t>
+  </si>
+  <si>
+    <t>COTC007B-1603</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>COTC007B-1602</t>
+  </si>
+  <si>
+    <t>IVa</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>COTC007B-0209</t>
+  </si>
+  <si>
+    <t>COTC007B-0613</t>
+  </si>
+  <si>
+    <t>COTC007B-0509</t>
+  </si>
+  <si>
+    <t>COTC007B-0614</t>
+  </si>
+  <si>
+    <t>COTC007B-0215</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>COTC007B-0217</t>
+  </si>
+  <si>
+    <t>COTC007B-0216</t>
+  </si>
+  <si>
+    <t>COTC007B-0611</t>
+  </si>
+  <si>
+    <t>COTC007B-0609</t>
+  </si>
+  <si>
+    <t>COTC007B-0207</t>
+  </si>
+  <si>
+    <t>COTC007B-0502</t>
+  </si>
+  <si>
+    <t>COTC007B-0201</t>
+  </si>
+  <si>
+    <t>COTC007B-0204</t>
+  </si>
+  <si>
+    <t>COTC007B-0503</t>
+  </si>
+  <si>
+    <t>COTC007B-1606</t>
+  </si>
+  <si>
+    <t>COTC007B-0504</t>
+  </si>
+  <si>
+    <t>COTC007B-0213</t>
+  </si>
+  <si>
+    <t>COTC007B-1604</t>
+  </si>
+  <si>
+    <t>COTC007B-0211</t>
+  </si>
+  <si>
+    <t>COTC007B-0410</t>
+  </si>
+  <si>
+    <t>COTC007B-0403</t>
+  </si>
+  <si>
+    <t>Va</t>
+  </si>
+  <si>
+    <t>COTC007B-0412</t>
+  </si>
+  <si>
+    <t>COTC007B-0508</t>
+  </si>
+  <si>
+    <t>COTC007B-1609</t>
+  </si>
+  <si>
+    <t>COTC007B-0615</t>
+  </si>
+  <si>
+    <t>COTC007B-0301</t>
+  </si>
+  <si>
+    <t>COTC007B-0302</t>
+  </si>
+  <si>
+    <t>COTC007B-0510</t>
+  </si>
+  <si>
+    <t>COTC007B-0214</t>
+  </si>
+  <si>
+    <t>COTC007B-0411</t>
+  </si>
+  <si>
+    <t>COTC007B-0612</t>
+  </si>
+  <si>
+    <t>COTC007B-0409</t>
+  </si>
+  <si>
+    <t>COTC007B-0608</t>
+  </si>
+  <si>
+    <t>COTC007B-0607</t>
+  </si>
+  <si>
+    <t>COTC007B-1607</t>
+  </si>
+  <si>
+    <t>COTC007B-0405</t>
+  </si>
+  <si>
+    <t>COTC007B-0406</t>
+  </si>
+  <si>
+    <t>COTC007B-0407</t>
+  </si>
+  <si>
+    <t>COTC007B-0603</t>
+  </si>
+  <si>
+    <t>COTC007B-0212</t>
+  </si>
+  <si>
+    <t>COTC007B-0902</t>
+  </si>
+  <si>
+    <t>COTC007B-0202</t>
+  </si>
+  <si>
+    <t>COTC007B-0210</t>
+  </si>
+  <si>
+    <t>COTC007B-0602</t>
+  </si>
+  <si>
+    <t>COTC007B-0401</t>
+  </si>
+  <si>
+    <t>COTC007B-0219</t>
+  </si>
+  <si>
+    <t>COTC007B-0617</t>
+  </si>
+  <si>
+    <t>COTC007B-0208</t>
+  </si>
+  <si>
+    <t>COTC007B-0610</t>
+  </si>
+  <si>
+    <t>COTC007B-0402</t>
+  </si>
+  <si>
+    <t>COTC007B-0413</t>
+  </si>
+  <si>
+    <t>COTC007B-0511</t>
+  </si>
+  <si>
+    <t>Vb</t>
+  </si>
+  <si>
+    <t>COTC007B-0404</t>
+  </si>
+  <si>
+    <t>COTC007B-0206</t>
+  </si>
+  <si>
+    <t>COTC007B-0512</t>
+  </si>
+  <si>
+    <t>COTC007B-0304</t>
+  </si>
+  <si>
+    <t>COTC007B-0605</t>
+  </si>
+  <si>
+    <t>COTC007B-1003</t>
+  </si>
+  <si>
+    <t>COTC007B-0415</t>
+  </si>
+  <si>
+    <t>COTC007B-0101</t>
+  </si>
+  <si>
+    <t>COTC007B-1608</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>COTC007B-0408</t>
+  </si>
+  <si>
+    <t>COTC007B-0506</t>
+  </si>
+  <si>
+    <t>COTC007B-0505</t>
+  </si>
+  <si>
+    <t>COTC007B-1605</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>COTC007B-0203</t>
+  </si>
+  <si>
+    <t>COTC007B-0601</t>
+  </si>
+  <si>
+    <t>COTC007B-1601</t>
+  </si>
+  <si>
+    <t>COTC007B-0220</t>
+  </si>
+  <si>
+    <t>COTC007B-0305</t>
+  </si>
+  <si>
+    <t>COTC007B-1001</t>
+  </si>
+  <si>
+    <t>COTC007B-0218</t>
+  </si>
+  <si>
+    <t>COTC007B-0616</t>
+  </si>
+  <si>
+    <t>COTC007B-0303</t>
+  </si>
+  <si>
+    <t>COTC007B-0414</t>
+  </si>
+  <si>
+    <t>COTC007B-0604</t>
+  </si>
+  <si>
+    <t>IIIb</t>
+  </si>
+  <si>
+    <t>Cypher query should not be an empty string</t>
   </si>
 </sst>
 </file>
@@ -738,7 +1035,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -747,27 +1044,27 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -776,27 +1073,27 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -805,27 +1102,27 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -834,27 +1131,27 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -863,27 +1160,27 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -892,27 +1189,27 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -921,27 +1218,27 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -950,27 +1247,27 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -979,27 +1276,27 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1014,21 +1311,21 @@
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1037,27 +1334,27 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1066,27 +1363,27 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1095,27 +1392,27 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1124,27 +1421,27 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1153,27 +1450,27 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1182,27 +1479,27 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1211,27 +1508,27 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1240,27 +1537,27 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1269,27 +1566,27 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1298,27 +1595,27 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1327,7 +1624,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
         <v>31</v>
@@ -1336,18 +1633,18 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1359,24 +1656,24 @@
         <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1388,24 +1685,24 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1414,27 +1711,27 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1443,27 +1740,27 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1472,27 +1769,27 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1501,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>31</v>
@@ -1510,18 +1807,18 @@
         <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1530,27 +1827,27 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1559,27 +1856,27 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1588,27 +1885,27 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1617,27 +1914,27 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1646,27 +1943,27 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1675,27 +1972,27 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1704,27 +2001,27 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1733,27 +2030,27 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1762,27 +2059,27 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1791,27 +2088,27 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1820,27 +2117,27 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1849,27 +2146,27 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1881,24 +2178,24 @@
         <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G41" t="s">
         <v>116</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1907,27 +2204,27 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1936,27 +2233,27 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1965,27 +2262,27 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="G44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1994,27 +2291,27 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -2026,24 +2323,24 @@
         <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="G46" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -2052,27 +2349,27 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="G47" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2081,27 +2378,27 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -2110,27 +2407,27 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2139,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
         <v>31</v>
@@ -2148,18 +2445,18 @@
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2168,27 +2465,27 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2197,27 +2494,27 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2226,27 +2523,27 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2255,27 +2552,27 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2284,27 +2581,27 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2313,27 +2610,27 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="H56" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2342,7 +2639,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
         <v>31</v>
@@ -2351,18 +2648,18 @@
         <v>26</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2371,27 +2668,27 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
         <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -2400,27 +2697,27 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="G59" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2429,27 +2726,27 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G60" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2458,27 +2755,27 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="G61" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2487,27 +2784,27 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2519,24 +2816,24 @@
         <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2545,27 +2842,27 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2574,27 +2871,27 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G65" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="H65" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2609,21 +2906,21 @@
         <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="G66" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>289</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2632,27 +2929,27 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2661,27 +2958,27 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2696,21 +2993,21 @@
         <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2719,27 +3016,27 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2748,27 +3045,27 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E71" t="s">
         <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2777,27 +3074,27 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G72" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2806,27 +3103,27 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="G73" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2835,27 +3132,27 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="H74" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2864,27 +3161,27 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G75" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="I75" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2893,27 +3190,27 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G76" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I76" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2922,27 +3219,27 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E77" t="s">
         <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G77" t="s">
         <v>61</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I77" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -2951,27 +3248,27 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="H78" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>303</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -2980,27 +3277,27 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s">
         <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="G79" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -3009,27 +3306,27 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="G80" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -3038,27 +3335,27 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -3067,27 +3364,27 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="G82" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="H82" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3096,27 +3393,27 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H83" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -3125,27 +3422,27 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="G84" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -3160,16 +3457,16 @@
         <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
       <c r="G85" t="s">
         <v>194</v>
       </c>
       <c r="H85" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3465,20 +3762,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" t="s">
-        <v>208</v>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="s">
         <v>209</v>
@@ -3500,7 +3784,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3608,51 +3892,56 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>204</v>
       </c>
     </row>
